--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\MakeMyTripBusBooking\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22263F2C-E872-417E-80B8-5AED38C75A97}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72944D0A-25ED-416B-BD3D-43D2E688C61A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
   <si>
     <t>From</t>
   </si>
@@ -63,30 +63,18 @@
     <t>j.r.sathishkumar.16@gmail.com</t>
   </si>
   <si>
-    <t>Coimbatore</t>
-  </si>
-  <si>
     <t>Bangalore</t>
   </si>
   <si>
-    <t>Kolkata</t>
-  </si>
-  <si>
     <t>Madurai</t>
   </si>
   <si>
-    <t>Mumbai</t>
-  </si>
-  <si>
     <t>krishna</t>
   </si>
   <si>
     <t>krishna@gmail.com</t>
   </si>
   <si>
-    <t>Naveenkuamr@gmail.com</t>
-  </si>
-  <si>
     <t>Guru</t>
   </si>
   <si>
@@ -97,6 +85,12 @@
   </si>
   <si>
     <t>Female</t>
+  </si>
+  <si>
+    <t>karthiga@gmail.com</t>
+  </si>
+  <si>
+    <t>Hyberabad</t>
   </si>
 </sst>
 </file>
@@ -144,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -152,6 +146,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -436,22 +432,22 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,14 +473,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="6">
         <v>45826</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -503,9 +499,9 @@
         <v>8838788654</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -514,7 +510,7 @@
         <v>45831</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>30</v>
@@ -523,50 +519,50 @@
         <v>10</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H3">
         <v>9082312312</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>45843</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4">
         <v>7347584824</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="3">
         <v>45853</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>27</v>
@@ -575,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H5">
         <v>8344748344</v>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\eclipse-workspace\MakeMyTripBusBooking\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72944D0A-25ED-416B-BD3D-43D2E688C61A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C098A01-45F8-4AE8-A0CA-F30A479A49CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="2" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,7 +481,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="6">
-        <v>45826</v>
+        <v>45836</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
